--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 8855-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 8855-2019.xlsx", "A 8855-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 8855-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 8855-2019.png", "A 8855-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 8855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 8855-2019.docx", "A 8855-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 8855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 8855-2019.docx", "A 8855-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 8855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 8855-2019.docx", "A 8855-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 8855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 8855-2019.docx", "A 8855-2019")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -710,27 +710,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 43229-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 43229-2019.xlsx", "A 43229-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 43229-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 43229-2019.png", "A 43229-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 43229-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 43229-2019.docx", "A 43229-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 43229-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 43229-2019.docx", "A 43229-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 43229-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 43229-2019.docx", "A 43229-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 43229-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 43229-2019.docx", "A 43229-2019")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -796,27 +796,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 40999-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 40999-2021.xlsx", "A 40999-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 40999-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 40999-2021.png", "A 40999-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 40999-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 40999-2021.docx", "A 40999-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 40999-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 40999-2021.docx", "A 40999-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 40999-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 40999-2021.docx", "A 40999-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 40999-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 40999-2021.docx", "A 40999-2021")</f>
         <v/>
       </c>
     </row>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,27 +882,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 29038-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 29038-2023.xlsx", "A 29038-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 29038-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 29038-2023.png", "A 29038-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 29038-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 29038-2023.docx", "A 29038-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 29038-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 29038-2023.docx", "A 29038-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 29038-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 29038-2023.docx", "A 29038-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 29038-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 29038-2023.docx", "A 29038-2023")</f>
         <v/>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -967,27 +967,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 15860-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 15860-2019.xlsx", "A 15860-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 15860-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 15860-2019.png", "A 15860-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 15860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 15860-2019.docx", "A 15860-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 15860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 15860-2019.docx", "A 15860-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 15860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 15860-2019.docx", "A 15860-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 15860-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 15860-2019.docx", "A 15860-2019")</f>
         <v/>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,27 +1052,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 35443-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 35443-2021.xlsx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 35443-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 35443-2021.png", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 35443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 35443-2021.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 35443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 35443-2021.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 35443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 35443-2021.docx", "A 35443-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 35443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 35443-2021.docx", "A 35443-2021")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1137,27 +1137,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 52355-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 52355-2021.xlsx", "A 52355-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 52355-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 52355-2021.png", "A 52355-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 52355-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 52355-2021.docx", "A 52355-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 52355-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 52355-2021.docx", "A 52355-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 52355-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 52355-2021.docx", "A 52355-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 52355-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 52355-2021.docx", "A 52355-2021")</f>
         <v/>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1222,27 +1222,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 72269-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/artfynd/A 72269-2021.xlsx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 72269-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/kartor/A 72269-2021.png", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 72269-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomål/A 72269-2021.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 72269-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/klagomålsmail/A 72269-2021.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 72269-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsyn/A 72269-2021.docx", "A 72269-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 72269-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUND/tillsynsmail/A 72269-2021.docx", "A 72269-2021")</f>
         <v/>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="R50" s="2" t="inlineStr"/>
     </row>
-    <row r="51">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
           <t>A 31773-2023</t>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3659,6 +3659,63 @@
         <v>0</v>
       </c>
       <c r="R51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>A 44646-2023</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>LUND</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>45189</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>45189</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>45189</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>45189</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt LUND.xlsx
+++ b/Översikt LUND.xlsx
@@ -572,7 +572,7 @@
         <v>43503</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43700</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44421</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43543</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>44385</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>44543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43439</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43544</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43605</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43630</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43707</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43714</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43714</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44061</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44102</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>44272</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44326</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44378</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44378</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>44378</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>44525</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>44649</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44690</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>44846</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44846</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44909</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44977</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45036</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45065</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45098</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45104</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45105</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45105</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>45189</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
